--- a/data/correlation_analysis_timeout_remove.xlsx
+++ b/data/correlation_analysis_timeout_remove.xlsx
@@ -506,10 +506,10 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -699,7 +699,7 @@
         <v>-0.3178304128441319</v>
       </c>
       <c r="L5">
-        <v>0.3140610795011266</v>
+        <v>0.3140610795011265</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -833,25 +833,25 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.1982706498886916</v>
+        <v>-0.1910649993965447</v>
       </c>
       <c r="J9">
-        <v>0.00536937267196464</v>
+        <v>0.007362964502577038</v>
       </c>
       <c r="K9">
-        <v>-0.2886630924945615</v>
+        <v>-0.2759146301993454</v>
       </c>
       <c r="L9">
-        <v>0.003584220045792815</v>
+        <v>0.005459194924523375</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -871,25 +871,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.07419898317173547</v>
+        <v>-0.06118096042217638</v>
       </c>
       <c r="J10">
-        <v>0.4757729627113875</v>
+        <v>0.5577933170131231</v>
       </c>
       <c r="K10">
-        <v>-0.09180759732127142</v>
+        <v>-0.0733097603574439</v>
       </c>
       <c r="L10">
-        <v>0.5260158773840007</v>
+        <v>0.6128926682147983</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -909,25 +909,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.05754957793625514</v>
+        <v>-0.04186119177310581</v>
       </c>
       <c r="J11">
-        <v>0.5629248250921306</v>
+        <v>0.6748774434313816</v>
       </c>
       <c r="K11">
-        <v>-0.07549849649427041</v>
+        <v>-0.05015044700647268</v>
       </c>
       <c r="L11">
-        <v>0.6022992028181389</v>
+        <v>0.7294436579599445</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -947,25 +947,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.1109847411106116</v>
+        <v>0.1172265866272641</v>
       </c>
       <c r="J12">
-        <v>0.2615485304145755</v>
+        <v>0.237157137469037</v>
       </c>
       <c r="K12">
-        <v>0.1670314118740952</v>
+        <v>0.1738547627439666</v>
       </c>
       <c r="L12">
-        <v>0.2462996599929245</v>
+        <v>0.2272525783888778</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -988,22 +988,22 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.4535394202249742</v>
+        <v>-0.3373495424699933</v>
       </c>
       <c r="J13">
-        <v>0.08070214265077501</v>
+        <v>0.2074202127647988</v>
       </c>
       <c r="K13">
-        <v>-0.5512130501182249</v>
+        <v>-0.4296689244236597</v>
       </c>
       <c r="L13">
-        <v>0.09862398123473154</v>
+        <v>0.215243543278886</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1026,22 +1026,22 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.02387049580131443</v>
+        <v>-0.1816497536376887</v>
       </c>
       <c r="J14">
-        <v>0.92675547372309</v>
+        <v>0.4972433060612282</v>
       </c>
       <c r="K14">
-        <v>-0.09290107586262218</v>
+        <v>-0.2669155439601523</v>
       </c>
       <c r="L14">
-        <v>0.7985237548304135</v>
+        <v>0.4559719917038285</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1064,22 +1064,22 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.09656090991705352</v>
+        <v>-0.0524863881081478</v>
       </c>
       <c r="J15">
-        <v>0.7120793980044939</v>
+        <v>0.8456867367859529</v>
       </c>
       <c r="K15">
-        <v>0.1428819499477476</v>
+        <v>-0.06856450678985078</v>
       </c>
       <c r="L15">
-        <v>0.6937488280957302</v>
+        <v>0.8507182473580949</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1102,22 +1102,22 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.7399853698407473</v>
+        <v>-0.7525489793561388</v>
       </c>
       <c r="J16">
-        <v>0.004375235749920733</v>
+        <v>0.004918698145511134</v>
       </c>
       <c r="K16">
-        <v>-0.8670767080511405</v>
+        <v>-0.8788682545029405</v>
       </c>
       <c r="L16">
-        <v>0.001159768265192443</v>
+        <v>0.000811787483996615</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1140,22 +1140,22 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.3103164454170876</v>
+        <v>-0.1816497536376887</v>
       </c>
       <c r="J17">
-        <v>0.2320634889020341</v>
+        <v>0.4972433060612282</v>
       </c>
       <c r="K17">
-        <v>-0.4149581388530457</v>
+        <v>-0.260405408741612</v>
       </c>
       <c r="L17">
-        <v>0.233093730241445</v>
+        <v>0.4674445466605421</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1178,22 +1178,22 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.4535394202249742</v>
+        <v>0.4411494016915297</v>
       </c>
       <c r="J18">
-        <v>0.08070214265077501</v>
+        <v>0.09923045565594253</v>
       </c>
       <c r="K18">
-        <v>0.5635998602332413</v>
+        <v>0.5143006822646836</v>
       </c>
       <c r="L18">
-        <v>0.08974939558201678</v>
+        <v>0.1282920587230653</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1216,22 +1216,22 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.4828045495852675</v>
+        <v>0.4198911048651824</v>
       </c>
       <c r="J19">
-        <v>0.06499039472076076</v>
+        <v>0.1194709867717007</v>
       </c>
       <c r="K19">
-        <v>0.5932707052178214</v>
+        <v>0.5060713596393749</v>
       </c>
       <c r="L19">
-        <v>0.0706202179291523</v>
+        <v>0.1355782583455031</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1254,22 +1254,22 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.3580574370197164</v>
+        <v>-0.3892494720807615</v>
       </c>
       <c r="J20">
-        <v>0.1679207532945924</v>
+        <v>0.1457680056362324</v>
       </c>
       <c r="K20">
-        <v>-0.4954724046006516</v>
+        <v>-0.5077905470461433</v>
       </c>
       <c r="L20">
-        <v>0.1453294522910624</v>
+        <v>0.1340355823255553</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1292,22 +1292,22 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.4535394202249742</v>
+        <v>-0.3373495424699933</v>
       </c>
       <c r="J21">
-        <v>0.08070214265077501</v>
+        <v>0.2074202127647988</v>
       </c>
       <c r="K21">
-        <v>-0.6007602905782901</v>
+        <v>-0.4687297357349016</v>
       </c>
       <c r="L21">
-        <v>0.06625295074379814</v>
+        <v>0.1717865787289185</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1330,22 +1330,22 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.1193524790065721</v>
+        <v>0.0778498944161523</v>
       </c>
       <c r="J22">
-        <v>0.6457756768370824</v>
+        <v>0.7711058640185235</v>
       </c>
       <c r="K22">
-        <v>0.1486417213801955</v>
+        <v>0.09765202827810447</v>
       </c>
       <c r="L22">
-        <v>0.6819355638686473</v>
+        <v>0.788411563708648</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1368,22 +1368,22 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.167093470609201</v>
+        <v>0.1297498240269205</v>
       </c>
       <c r="J23">
-        <v>0.5199036173455835</v>
+        <v>0.6277606629910362</v>
       </c>
       <c r="K23">
-        <v>0.2725098225303584</v>
+        <v>0.2083243269932896</v>
       </c>
       <c r="L23">
-        <v>0.446215643690079</v>
+        <v>0.5635582121900502</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1406,22 +1406,22 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.3580574370197164</v>
+        <v>-0.2335496832484569</v>
       </c>
       <c r="J24">
-        <v>0.1679207532945924</v>
+        <v>0.3827797056047885</v>
       </c>
       <c r="K24">
-        <v>-0.4706987843706191</v>
+        <v>-0.3320168961455552</v>
       </c>
       <c r="L24">
-        <v>0.1697475039817557</v>
+        <v>0.3486190102393061</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1914,25 +1914,25 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2289041597670328</v>
+        <v>-0.2419880147043038</v>
       </c>
       <c r="J9">
-        <v>0.004154062204876697</v>
+        <v>0.002471409738675847</v>
       </c>
       <c r="K9">
-        <v>-0.2872671746617843</v>
+        <v>-0.303489343721962</v>
       </c>
       <c r="L9">
-        <v>0.003756720549751365</v>
+        <v>0.002144343888314521</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2008,7 +2008,7 @@
         <v>-0.3916527812158478</v>
       </c>
       <c r="L11">
-        <v>0.004913052567611288</v>
+        <v>0.00491305256761129</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3251,7 +3251,7 @@
         <v>-0.2860387767736777</v>
       </c>
       <c r="L14">
-        <v>0.4230203924441358</v>
+        <v>0.4230203924441357</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3848,7 +3848,7 @@
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4088,25 +4088,13 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>100</v>
-      </c>
-      <c r="I9">
-        <v>-0.1325530043077417</v>
-      </c>
-      <c r="J9">
-        <v>0.1086826442074059</v>
-      </c>
-      <c r="K9">
-        <v>-0.1612223880273475</v>
-      </c>
-      <c r="L9">
-        <v>0.1090548020620709</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4126,25 +4114,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.1454025530693833</v>
+        <v>0.01421997815784012</v>
       </c>
       <c r="J10">
-        <v>0.2372373518450496</v>
+        <v>0.9088173646349219</v>
       </c>
       <c r="K10">
-        <v>-0.17271903862684</v>
+        <v>0.01636148293791983</v>
       </c>
       <c r="L10">
-        <v>0.2303502122764337</v>
+        <v>0.9102093962355748</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4164,25 +4152,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.1395616700784287</v>
+        <v>0.001918117792161453</v>
       </c>
       <c r="J11">
-        <v>0.2348980869048207</v>
+        <v>0.9870933347767511</v>
       </c>
       <c r="K11">
-        <v>-0.1674579385094694</v>
+        <v>0.002310973073108823</v>
       </c>
       <c r="L11">
-        <v>0.2450782275649824</v>
+        <v>0.9872920353883015</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4202,25 +4190,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.02140819589682411</v>
+        <v>0.2419047619047619</v>
       </c>
       <c r="J12">
-        <v>0.8544862615484419</v>
+        <v>0.04002718189621234</v>
       </c>
       <c r="K12">
-        <v>0.02708713119452734</v>
+        <v>0.2933526131391836</v>
       </c>
       <c r="L12">
-        <v>0.8518765230635053</v>
+        <v>0.03867934687031337</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4240,25 +4228,13 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>10</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4278,25 +4254,13 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>10</v>
-      </c>
-      <c r="I14">
-        <v>0.6085806194501846</v>
-      </c>
-      <c r="J14">
-        <v>0.03300625766123251</v>
-      </c>
-      <c r="K14">
-        <v>0.7106690545187014</v>
-      </c>
-      <c r="L14">
-        <v>0.02124449212877441</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4316,25 +4280,13 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0.6770032003863301</v>
-      </c>
-      <c r="J15">
-        <v>0.01865536081150319</v>
-      </c>
-      <c r="K15">
-        <v>0.7841156792042765</v>
-      </c>
-      <c r="L15">
-        <v>0.007255789526699558</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4354,25 +4306,13 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>10</v>
-      </c>
-      <c r="I16">
-        <v>-0.1217161238900369</v>
-      </c>
-      <c r="J16">
-        <v>0.6698153575994166</v>
-      </c>
-      <c r="K16">
-        <v>-0.1421338109037403</v>
-      </c>
-      <c r="L16">
-        <v>0.6952876854012655</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4392,25 +4332,13 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>10</v>
-      </c>
-      <c r="I17">
-        <v>-0.3042903097250923</v>
-      </c>
-      <c r="J17">
-        <v>0.2864220227778588</v>
-      </c>
-      <c r="K17">
-        <v>-0.3553345272593507</v>
-      </c>
-      <c r="L17">
-        <v>0.3136373640754537</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4430,25 +4358,13 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>10</v>
-      </c>
-      <c r="I18">
-        <v>0.06085806194501846</v>
-      </c>
-      <c r="J18">
-        <v>0.8311704095417624</v>
-      </c>
-      <c r="K18">
-        <v>0.07106690545187015</v>
-      </c>
-      <c r="L18">
-        <v>0.8453239136912953</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4468,25 +4384,13 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>10</v>
-      </c>
-      <c r="I19">
-        <v>0.09231861823449956</v>
-      </c>
-      <c r="J19">
-        <v>0.7483812122920345</v>
-      </c>
-      <c r="K19">
-        <v>0.1069248653460377</v>
-      </c>
-      <c r="L19">
-        <v>0.7687577033932652</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4506,25 +4410,13 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>10</v>
-      </c>
-      <c r="I20">
-        <v>-0.06085806194501846</v>
-      </c>
-      <c r="J20">
-        <v>0.8311704095417624</v>
-      </c>
-      <c r="K20">
-        <v>-0.07106690545187015</v>
-      </c>
-      <c r="L20">
-        <v>0.8453239136912953</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4544,25 +4436,13 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>10</v>
-      </c>
-      <c r="I21">
-        <v>-0.2434322477800739</v>
-      </c>
-      <c r="J21">
-        <v>0.3937686346429927</v>
-      </c>
-      <c r="K21">
-        <v>-0.2842676218074806</v>
-      </c>
-      <c r="L21">
-        <v>0.4260244484285426</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4582,25 +4462,13 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>10</v>
-      </c>
-      <c r="I22">
-        <v>0.1217161238900369</v>
-      </c>
-      <c r="J22">
-        <v>0.6698153575994166</v>
-      </c>
-      <c r="K22">
-        <v>0.1421338109037403</v>
-      </c>
-      <c r="L22">
-        <v>0.6952876854012655</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4620,25 +4488,13 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>10</v>
-      </c>
-      <c r="I23">
-        <v>0.2434322477800739</v>
-      </c>
-      <c r="J23">
-        <v>0.3937686346429927</v>
-      </c>
-      <c r="K23">
-        <v>0.2842676218074806</v>
-      </c>
-      <c r="L23">
-        <v>0.4260244484285426</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4658,25 +4514,13 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>10</v>
-      </c>
-      <c r="I24">
-        <v>-0.2434322477800739</v>
-      </c>
-      <c r="J24">
-        <v>0.3937686346429927</v>
-      </c>
-      <c r="K24">
-        <v>-0.2842676218074806</v>
-      </c>
-      <c r="L24">
-        <v>0.4260244484285426</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -5159,7 +5003,7 @@
         <v>-0.5561107852980067</v>
       </c>
       <c r="L7">
-        <v>0.06043495620092659</v>
+        <v>0.0604349562009266</v>
       </c>
     </row>
     <row r="8" spans="1:12">

--- a/data/correlation_analysis_timeout_remove.xlsx
+++ b/data/correlation_analysis_timeout_remove.xlsx
@@ -699,7 +699,7 @@
         <v>-0.3178304128441319</v>
       </c>
       <c r="L5">
-        <v>0.3140610795011265</v>
+        <v>0.3140610795011266</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -836,22 +836,22 @@
         <v>91</v>
       </c>
       <c r="G9">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.1910649993965447</v>
+        <v>-0.1810591151227641</v>
       </c>
       <c r="J9">
-        <v>0.007362964502577038</v>
+        <v>0.01111487617551859</v>
       </c>
       <c r="K9">
-        <v>-0.2759146301993454</v>
+        <v>-0.2622287241356556</v>
       </c>
       <c r="L9">
-        <v>0.005459194924523375</v>
+        <v>0.008398617220086772</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1444,22 +1444,22 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.1807753815155468</v>
+        <v>-0.2089183206099184</v>
       </c>
       <c r="J25">
-        <v>0.3541954904764164</v>
+        <v>0.2858071051160878</v>
       </c>
       <c r="K25">
-        <v>-0.2576049186596542</v>
+        <v>-0.2761088800464458</v>
       </c>
       <c r="L25">
-        <v>0.3354345184285685</v>
+        <v>0.3006008438154604</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1482,22 +1482,22 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.1807753815155468</v>
+        <v>-0.1907515101220994</v>
       </c>
       <c r="J26">
-        <v>0.3541954904764164</v>
+        <v>0.3297832606788835</v>
       </c>
       <c r="K26">
-        <v>-0.2666436877354316</v>
+        <v>-0.2791264634349316</v>
       </c>
       <c r="L26">
-        <v>0.3181414648703181</v>
+        <v>0.2951316609645892</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1520,22 +1520,22 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.3539900381483285</v>
+        <v>0.3648596387010686</v>
       </c>
       <c r="J27">
-        <v>0.07056136851892029</v>
+        <v>0.06317307481323101</v>
       </c>
       <c r="K27">
-        <v>0.4341802833034056</v>
+        <v>0.4446662347157511</v>
       </c>
       <c r="L27">
-        <v>0.09288178063084394</v>
+        <v>0.08439298705280707</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1558,22 +1558,22 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.1647705109143269</v>
+        <v>-0.1563850753205831</v>
       </c>
       <c r="J28">
-        <v>0.4027546538976249</v>
+        <v>0.4285752941987943</v>
       </c>
       <c r="K28">
-        <v>-0.2493004677260264</v>
+        <v>-0.2133681077431026</v>
       </c>
       <c r="L28">
-        <v>0.3517858440384553</v>
+        <v>0.4275202599269713</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1596,22 +1596,22 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.1265427670608828</v>
+        <v>-0.1725846996342804</v>
       </c>
       <c r="J29">
-        <v>0.5166373798159882</v>
+        <v>0.377919481405675</v>
       </c>
       <c r="K29">
-        <v>-0.1491396897503261</v>
+        <v>-0.1931253368630878</v>
       </c>
       <c r="L29">
-        <v>0.5814513259975999</v>
+        <v>0.4736035833560223</v>
       </c>
     </row>
   </sheetData>
@@ -1914,25 +1914,25 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2419880147043038</v>
+        <v>-0.2260489959509954</v>
       </c>
       <c r="J9">
-        <v>0.002471409738675847</v>
+        <v>0.004741931174898608</v>
       </c>
       <c r="K9">
-        <v>-0.303489343721962</v>
+        <v>-0.2832375756589699</v>
       </c>
       <c r="L9">
-        <v>0.002144343888314521</v>
+        <v>0.004297109542258244</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2008,7 +2008,7 @@
         <v>-0.3916527812158478</v>
       </c>
       <c r="L11">
-        <v>0.00491305256761129</v>
+        <v>0.004913052567611288</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3046,22 +3046,22 @@
         <v>88</v>
       </c>
       <c r="G9">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.15625137459341</v>
+        <v>-0.1509654696395568</v>
       </c>
       <c r="J9">
-        <v>0.0301286154880051</v>
+        <v>0.03611918064522761</v>
       </c>
       <c r="K9">
-        <v>-0.2203331090972887</v>
+        <v>-0.2132165514106953</v>
       </c>
       <c r="L9">
-        <v>0.0276105659239954</v>
+        <v>0.0331785702669911</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3251,7 +3251,7 @@
         <v>-0.2860387767736777</v>
       </c>
       <c r="L14">
-        <v>0.4230203924441357</v>
+        <v>0.4230203924441358</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4208,7 +4208,7 @@
         <v>0.2933526131391836</v>
       </c>
       <c r="L12">
-        <v>0.03867934687031337</v>
+        <v>0.03867934687031339</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5003,7 +5003,7 @@
         <v>-0.5561107852980067</v>
       </c>
       <c r="L7">
-        <v>0.0604349562009266</v>
+        <v>0.06043495620092659</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5669,25 +5669,25 @@
         <v>16</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.31352722326441</v>
+        <v>-0.3244079990200284</v>
       </c>
       <c r="J25">
-        <v>0.1131685336545776</v>
+        <v>0.1020809611324846</v>
       </c>
       <c r="K25">
-        <v>-0.4479914656638877</v>
+        <v>-0.4824165900576836</v>
       </c>
       <c r="L25">
-        <v>0.08182143505121871</v>
+        <v>0.05842088299110668</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5707,25 +5707,25 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.3872983346207417</v>
+        <v>-0.4170959987400364</v>
       </c>
       <c r="J26">
-        <v>0.05036597579032801</v>
+        <v>0.03555790569992093</v>
       </c>
       <c r="K26">
-        <v>-0.5070173682344674</v>
+        <v>-0.5355127556300702</v>
       </c>
       <c r="L26">
-        <v>0.04501930875693567</v>
+        <v>0.03253137976639191</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5745,25 +5745,25 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.08334047874242113</v>
+        <v>0.2047685867790963</v>
       </c>
       <c r="J27">
-        <v>0.6747078413451294</v>
+        <v>0.3037024766857317</v>
       </c>
       <c r="K27">
-        <v>0.08027373462987823</v>
+        <v>0.2170954499333818</v>
       </c>
       <c r="L27">
-        <v>0.7675926515511813</v>
+        <v>0.4192967698838219</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5783,25 +5783,25 @@
         <v>16</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>0.09338863578008762</v>
+        <v>0.08448190755542286</v>
       </c>
       <c r="J28">
-        <v>0.6401498414586226</v>
+        <v>0.6731676659685988</v>
       </c>
       <c r="K28">
-        <v>0.1305442024324843</v>
+        <v>0.1201996807657877</v>
       </c>
       <c r="L28">
-        <v>0.6298840619248964</v>
+        <v>0.6574684200274921</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -5821,25 +5821,25 @@
         <v>16</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.1290994448735805</v>
+        <v>0.009268799972000809</v>
       </c>
       <c r="J29">
-        <v>0.5142199988155506</v>
+        <v>0.9627444106905073</v>
       </c>
       <c r="K29">
-        <v>0.1619428608987702</v>
+        <v>0.01365329971861369</v>
       </c>
       <c r="L29">
-        <v>0.5490376092324329</v>
+        <v>0.9599750222894384</v>
       </c>
     </row>
   </sheetData>

--- a/data/correlation_analysis_timeout_remove.xlsx
+++ b/data/correlation_analysis_timeout_remove.xlsx
@@ -699,7 +699,7 @@
         <v>-0.3178304128441319</v>
       </c>
       <c r="L5">
-        <v>0.3140610795011265</v>
+        <v>0.3140610795011266</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -874,22 +874,22 @@
         <v>46</v>
       </c>
       <c r="G10">
-        <v>790</v>
+        <v>763</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.06118096042217638</v>
+        <v>-0.003545221720296981</v>
       </c>
       <c r="J10">
-        <v>0.5577933170131231</v>
+        <v>0.9728986704705753</v>
       </c>
       <c r="K10">
-        <v>-0.0733097603574439</v>
+        <v>0.006205606484648969</v>
       </c>
       <c r="L10">
-        <v>0.6128926682147983</v>
+        <v>0.9658842504002187</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -912,22 +912,22 @@
         <v>46</v>
       </c>
       <c r="G11">
-        <v>790</v>
+        <v>763</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.04186119177310581</v>
+        <v>0.007531826444330847</v>
       </c>
       <c r="J11">
-        <v>0.6748774434313816</v>
+        <v>0.939823300055862</v>
       </c>
       <c r="K11">
-        <v>-0.05015044700647268</v>
+        <v>0.01845481420254957</v>
       </c>
       <c r="L11">
-        <v>0.7294436579599445</v>
+        <v>0.8987778293897221</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -950,22 +950,22 @@
         <v>46</v>
       </c>
       <c r="G12">
-        <v>790</v>
+        <v>763</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.1172265866272641</v>
+        <v>0.1562359838666746</v>
       </c>
       <c r="J12">
-        <v>0.237157137469037</v>
+        <v>0.115043499656949</v>
       </c>
       <c r="K12">
-        <v>0.1738547627439666</v>
+        <v>0.2375126523541698</v>
       </c>
       <c r="L12">
-        <v>0.2272525783888778</v>
+        <v>0.09674346165764539</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -988,22 +988,22 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.3373495424699933</v>
+        <v>-0.5284193913361779</v>
       </c>
       <c r="J13">
-        <v>0.2074202127647988</v>
+        <v>0.05682819683984795</v>
       </c>
       <c r="K13">
-        <v>-0.4296689244236597</v>
+        <v>-0.6292532049656926</v>
       </c>
       <c r="L13">
-        <v>0.215243543278886</v>
+        <v>0.05126402824042627</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1026,22 +1026,22 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.1816497536376887</v>
+        <v>-0.4662524041201569</v>
       </c>
       <c r="J14">
-        <v>0.4972433060612282</v>
+        <v>0.09284922807157968</v>
       </c>
       <c r="K14">
-        <v>-0.2669155439601523</v>
+        <v>-0.5618332187193684</v>
       </c>
       <c r="L14">
-        <v>0.4559719917038285</v>
+        <v>0.090982576216914</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1064,22 +1064,22 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.0524863881081478</v>
+        <v>-0.3143473067309657</v>
       </c>
       <c r="J15">
-        <v>0.8456867367859529</v>
+        <v>0.2610207247026572</v>
       </c>
       <c r="K15">
-        <v>-0.06856450678985078</v>
+        <v>-0.3719387243003159</v>
       </c>
       <c r="L15">
-        <v>0.8507182473580949</v>
+        <v>0.2899037448075479</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1102,22 +1102,22 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.7525489793561388</v>
+        <v>-0.5905863785521988</v>
       </c>
       <c r="J16">
-        <v>0.004918698145511134</v>
+        <v>0.03327875704510121</v>
       </c>
       <c r="K16">
-        <v>-0.8788682545029405</v>
+        <v>-0.6741998624632421</v>
       </c>
       <c r="L16">
-        <v>0.000811787483996615</v>
+        <v>0.03251559932021606</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1140,22 +1140,22 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.1816497536376887</v>
+        <v>0.03108349360801046</v>
       </c>
       <c r="J17">
-        <v>0.4972433060612282</v>
+        <v>0.9107940274245708</v>
       </c>
       <c r="K17">
-        <v>-0.260405408741612</v>
+        <v>0.02247332874877474</v>
       </c>
       <c r="L17">
-        <v>0.4674445466605421</v>
+        <v>0.9508644143273767</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1178,22 +1178,22 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.4411494016915297</v>
+        <v>0.404085416904136</v>
       </c>
       <c r="J18">
-        <v>0.09923045565594253</v>
+        <v>0.1452595077432854</v>
       </c>
       <c r="K18">
-        <v>0.5143006822646836</v>
+        <v>0.4944132324730443</v>
       </c>
       <c r="L18">
-        <v>0.1282920587230653</v>
+        <v>0.1463267160789159</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1216,22 +1216,22 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.4198911048651824</v>
+        <v>0.4400862294233521</v>
       </c>
       <c r="J19">
-        <v>0.1194709867717007</v>
+        <v>0.1155858306979473</v>
       </c>
       <c r="K19">
-        <v>0.5060713596393749</v>
+        <v>0.5297309103671165</v>
       </c>
       <c r="L19">
-        <v>0.1355782583455031</v>
+        <v>0.1152952650343875</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1254,22 +1254,22 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.3892494720807615</v>
+        <v>-0.404085416904136</v>
       </c>
       <c r="J20">
-        <v>0.1457680056362324</v>
+        <v>0.1452595077432854</v>
       </c>
       <c r="K20">
-        <v>-0.5077905470461433</v>
+        <v>-0.4494665749754947</v>
       </c>
       <c r="L20">
-        <v>0.1340355823255553</v>
+        <v>0.1925017251163437</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1292,22 +1292,22 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.3373495424699933</v>
+        <v>-0.2175844552560732</v>
       </c>
       <c r="J21">
-        <v>0.2074202127647988</v>
+        <v>0.4328879340133424</v>
       </c>
       <c r="K21">
-        <v>-0.4687297357349016</v>
+        <v>-0.3146266024828463</v>
       </c>
       <c r="L21">
-        <v>0.1717865787289185</v>
+        <v>0.3759325783116143</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1330,22 +1330,22 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.0778498944161523</v>
+        <v>-0.2175844552560732</v>
       </c>
       <c r="J22">
-        <v>0.7711058640185235</v>
+        <v>0.4328879340133424</v>
       </c>
       <c r="K22">
-        <v>0.09765202827810447</v>
+        <v>-0.2696799449852968</v>
       </c>
       <c r="L22">
-        <v>0.788411563708648</v>
+        <v>0.4511390079856625</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1368,22 +1368,22 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.1297498240269205</v>
+        <v>-0.1554174680400523</v>
       </c>
       <c r="J23">
-        <v>0.6277606629910362</v>
+        <v>0.5753530764008791</v>
       </c>
       <c r="K23">
-        <v>0.2083243269932896</v>
+        <v>-0.1573133012414231</v>
       </c>
       <c r="L23">
-        <v>0.5635582121900502</v>
+        <v>0.6642676178335104</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1406,22 +1406,22 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2335496832484569</v>
+        <v>-0.03108349360801046</v>
       </c>
       <c r="J24">
-        <v>0.3827797056047885</v>
+        <v>0.9107940274245708</v>
       </c>
       <c r="K24">
-        <v>-0.3320168961455552</v>
+        <v>-0.04494665749754947</v>
       </c>
       <c r="L24">
-        <v>0.3486190102393061</v>
+        <v>0.9018775739844269</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1444,22 +1444,22 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.1807753815155468</v>
+        <v>-0.2089183206099184</v>
       </c>
       <c r="J25">
-        <v>0.3541954904764164</v>
+        <v>0.2858071051160878</v>
       </c>
       <c r="K25">
-        <v>-0.2576049186596542</v>
+        <v>-0.2761088800464458</v>
       </c>
       <c r="L25">
-        <v>0.3354345184285685</v>
+        <v>0.3006008438154604</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1482,22 +1482,22 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.1807753815155468</v>
+        <v>-0.1907515101220994</v>
       </c>
       <c r="J26">
-        <v>0.3541954904764164</v>
+        <v>0.3297832606788835</v>
       </c>
       <c r="K26">
-        <v>-0.2666436877354316</v>
+        <v>-0.2791264634349316</v>
       </c>
       <c r="L26">
-        <v>0.3181414648703181</v>
+        <v>0.2951316609645892</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1520,22 +1520,22 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.3539900381483285</v>
+        <v>0.3648596387010686</v>
       </c>
       <c r="J27">
-        <v>0.07056136851892029</v>
+        <v>0.06317307481323101</v>
       </c>
       <c r="K27">
-        <v>0.4341802833034056</v>
+        <v>0.4446662347157511</v>
       </c>
       <c r="L27">
-        <v>0.09288178063084394</v>
+        <v>0.08439298705280707</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1558,22 +1558,22 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.1647705109143269</v>
+        <v>-0.1563850753205831</v>
       </c>
       <c r="J28">
-        <v>0.4027546538976249</v>
+        <v>0.4285752941987943</v>
       </c>
       <c r="K28">
-        <v>-0.2493004677260264</v>
+        <v>-0.2133681077431026</v>
       </c>
       <c r="L28">
-        <v>0.3517858440384553</v>
+        <v>0.4275202599269713</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1596,22 +1596,22 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.1265427670608828</v>
+        <v>-0.1725846996342804</v>
       </c>
       <c r="J29">
-        <v>0.5166373798159882</v>
+        <v>0.377919481405675</v>
       </c>
       <c r="K29">
-        <v>-0.1491396897503261</v>
+        <v>-0.1931253368630878</v>
       </c>
       <c r="L29">
-        <v>0.5814513259975999</v>
+        <v>0.4736035833560223</v>
       </c>
     </row>
   </sheetData>
@@ -1952,25 +1952,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.2741939043543897</v>
+        <v>-0.1719856383383667</v>
       </c>
       <c r="J10">
-        <v>0.01523742906785629</v>
+        <v>0.1316238040142544</v>
       </c>
       <c r="K10">
-        <v>-0.3438060590640694</v>
+        <v>-0.2170916607282444</v>
       </c>
       <c r="L10">
-        <v>0.0145005762354219</v>
+        <v>0.1299324388039652</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1990,25 +1990,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.2885159533670518</v>
+        <v>-0.2220671589132321</v>
       </c>
       <c r="J11">
-        <v>0.007534224862278689</v>
+        <v>0.0416011054294208</v>
       </c>
       <c r="K11">
-        <v>-0.3916527812158478</v>
+        <v>-0.3044028033210576</v>
       </c>
       <c r="L11">
-        <v>0.00491305256761129</v>
+        <v>0.03161022555609473</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2028,25 +2028,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.1527404930393114</v>
+        <v>0.2554933792020658</v>
       </c>
       <c r="J12">
-        <v>0.1545006958890939</v>
+        <v>0.01830915752272128</v>
       </c>
       <c r="K12">
-        <v>0.1874148805812322</v>
+        <v>0.3206647291565351</v>
       </c>
       <c r="L12">
-        <v>0.192476549579598</v>
+        <v>0.02318249883445114</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2066,25 +2066,25 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0.3651483716701108</v>
+        <v>0.07453559924999299</v>
       </c>
       <c r="J13">
-        <v>0.2008251226951454</v>
+        <v>0.794002680192762</v>
       </c>
       <c r="K13">
-        <v>0.4264014327112208</v>
+        <v>0.08703882797784893</v>
       </c>
       <c r="L13">
-        <v>0.2191383605228726</v>
+        <v>0.8110384240587123</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2104,25 +2104,25 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>0.7302967433402215</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="J14">
-        <v>0.01051524593585891</v>
+        <v>0.191694602051888</v>
       </c>
       <c r="K14">
-        <v>0.8528028654224417</v>
+        <v>0.4351941398892446</v>
       </c>
       <c r="L14">
-        <v>0.001712874149321468</v>
+        <v>0.2087486300875882</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2142,25 +2142,25 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.7385489458759965</v>
+        <v>0.3768891807222045</v>
       </c>
       <c r="J15">
-        <v>0.01028204822194895</v>
+        <v>0.1903458092612167</v>
       </c>
       <c r="K15">
-        <v>0.8553989227683017</v>
+        <v>0.4365189348559864</v>
       </c>
       <c r="L15">
-        <v>0.001600453316805279</v>
+        <v>0.2072083540976897</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2180,25 +2180,25 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.1217161238900369</v>
+        <v>0.149071198499986</v>
       </c>
       <c r="J16">
-        <v>0.6698153575994166</v>
+        <v>0.6015081344405899</v>
       </c>
       <c r="K16">
-        <v>-0.1421338109037403</v>
+        <v>0.1740776559556979</v>
       </c>
       <c r="L16">
-        <v>0.6952876854012655</v>
+        <v>0.6305360755569764</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2218,25 +2218,25 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.5477225575051662</v>
+        <v>-0.223606797749979</v>
       </c>
       <c r="J17">
-        <v>0.05500883362926572</v>
+        <v>0.4334219309560737</v>
       </c>
       <c r="K17">
-        <v>-0.6396021490668313</v>
+        <v>-0.2611164839335468</v>
       </c>
       <c r="L17">
-        <v>0.04643461767158175</v>
+        <v>0.4661852835040308</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2256,25 +2256,25 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>-0.3651483716701108</v>
+        <v>-0.4472135954999579</v>
       </c>
       <c r="J18">
-        <v>0.2008251226951454</v>
+        <v>0.117185087198138</v>
       </c>
       <c r="K18">
-        <v>-0.4264014327112208</v>
+        <v>-0.5222329678670935</v>
       </c>
       <c r="L18">
-        <v>0.2191383605228726</v>
+        <v>0.1215029188171132</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2294,25 +2294,25 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>-0.3077287274483319</v>
+        <v>-0.3015113445777636</v>
       </c>
       <c r="J19">
-        <v>0.2849576406684299</v>
+        <v>0.2948019919337048</v>
       </c>
       <c r="K19">
-        <v>-0.3564162178201257</v>
+        <v>-0.3492151478847891</v>
       </c>
       <c r="L19">
-        <v>0.312061132326838</v>
+        <v>0.3226327672991101</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2332,25 +2332,25 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>0.3042903097250923</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="J20">
-        <v>0.2864220227778588</v>
+        <v>0.117185087198138</v>
       </c>
       <c r="K20">
-        <v>0.3553345272593507</v>
+        <v>0.5222329678670935</v>
       </c>
       <c r="L20">
-        <v>0.3136373640754537</v>
+        <v>0.1215029188171132</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2370,25 +2370,25 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.3651483716701108</v>
+        <v>-0.223606797749979</v>
       </c>
       <c r="J21">
-        <v>0.2008251226951454</v>
+        <v>0.4334219309560737</v>
       </c>
       <c r="K21">
-        <v>-0.4264014327112208</v>
+        <v>-0.2611164839335468</v>
       </c>
       <c r="L21">
-        <v>0.2191383605228726</v>
+        <v>0.4661852835040308</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2408,25 +2408,25 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.3042903097250923</v>
+        <v>-0.223606797749979</v>
       </c>
       <c r="J22">
-        <v>0.2864220227778588</v>
+        <v>0.4334219309560737</v>
       </c>
       <c r="K22">
-        <v>0.3553345272593507</v>
+        <v>-0.2611164839335468</v>
       </c>
       <c r="L22">
-        <v>0.3136373640754537</v>
+        <v>0.4661852835040308</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2446,25 +2446,25 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.3651483716701108</v>
+        <v>-0.149071198499986</v>
       </c>
       <c r="J23">
-        <v>0.2008251226951454</v>
+        <v>0.6015081344405899</v>
       </c>
       <c r="K23">
-        <v>0.4264014327112208</v>
+        <v>-0.1740776559556979</v>
       </c>
       <c r="L23">
-        <v>0.2191383605228726</v>
+        <v>0.6305360755569764</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2484,25 +2484,25 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.4260064336151292</v>
+        <v>-0.07453559924999299</v>
       </c>
       <c r="J24">
-        <v>0.1355930012663022</v>
+        <v>0.794002680192762</v>
       </c>
       <c r="K24">
-        <v>-0.497468338163091</v>
+        <v>-0.08703882797784893</v>
       </c>
       <c r="L24">
-        <v>0.1434614655950857</v>
+        <v>0.8110384240587123</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2716,9 +2716,9 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3084,22 +3084,22 @@
         <v>40</v>
       </c>
       <c r="G10">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>0.03324642499485375</v>
+        <v>0.08712167584961492</v>
       </c>
       <c r="J10">
-        <v>0.7524695495544889</v>
+        <v>0.4083766752312095</v>
       </c>
       <c r="K10">
-        <v>0.05369692827151148</v>
+        <v>0.1227687641955272</v>
       </c>
       <c r="L10">
-        <v>0.7111154281850389</v>
+        <v>0.3956759834281137</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3122,22 +3122,22 @@
         <v>40</v>
       </c>
       <c r="G11">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0.02630142666529713</v>
+        <v>0.07462967377124524</v>
       </c>
       <c r="J11">
-        <v>0.7941029996140164</v>
+        <v>0.4588124610579571</v>
       </c>
       <c r="K11">
-        <v>0.0345247475921612</v>
+        <v>0.09255821810809323</v>
       </c>
       <c r="L11">
-        <v>0.8118632018166435</v>
+        <v>0.5226237277667096</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3160,22 +3160,22 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.02696081483975262</v>
+        <v>0.0648462728029752</v>
       </c>
       <c r="J12">
-        <v>0.7877495099042957</v>
+        <v>0.5171200381290717</v>
       </c>
       <c r="K12">
-        <v>0.03904490288887924</v>
+        <v>0.08638478532010939</v>
       </c>
       <c r="L12">
-        <v>0.7877690834629696</v>
+        <v>0.5508414269428876</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3198,22 +3198,22 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.4787549991450212</v>
+        <v>-0.6366820122120065</v>
       </c>
       <c r="J13">
-        <v>0.07217560549492458</v>
+        <v>0.01869720062275651</v>
       </c>
       <c r="K13">
-        <v>-0.6292853089020909</v>
+        <v>-0.8019532181238483</v>
       </c>
       <c r="L13">
-        <v>0.05124855216842294</v>
+        <v>0.005259237421010194</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3236,22 +3236,22 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.2267786838055363</v>
+        <v>-0.4705910525045265</v>
       </c>
       <c r="J14">
-        <v>0.3943870594034554</v>
+        <v>0.08219753762575091</v>
       </c>
       <c r="K14">
-        <v>-0.2860387767736777</v>
+        <v>-0.5414897797588377</v>
       </c>
       <c r="L14">
-        <v>0.4230203924441357</v>
+        <v>0.1059666504898876</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3274,22 +3274,22 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.1019294382875251</v>
+        <v>-0.3359355065735126</v>
       </c>
       <c r="J15">
-        <v>0.7040542681897126</v>
+        <v>0.218311625181403</v>
       </c>
       <c r="K15">
-        <v>-0.0765092055676006</v>
+        <v>-0.3506334920077187</v>
       </c>
       <c r="L15">
-        <v>0.8336123677972922</v>
+        <v>0.3205360031284263</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3312,22 +3312,22 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.579545525280815</v>
+        <v>-0.3598637460328732</v>
       </c>
       <c r="J16">
-        <v>0.02951512807757192</v>
+        <v>0.1838095557893692</v>
       </c>
       <c r="K16">
-        <v>-0.7119187333033755</v>
+        <v>-0.4592381676435712</v>
       </c>
       <c r="L16">
-        <v>0.02091481468718881</v>
+        <v>0.1818195500051732</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3350,22 +3350,22 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.1259881576697424</v>
+        <v>0.08304547985373997</v>
       </c>
       <c r="J17">
-        <v>0.6360988735986226</v>
+        <v>0.7590571299004958</v>
       </c>
       <c r="K17">
-        <v>-0.1906925178491184</v>
+        <v>0.08910591312487204</v>
       </c>
       <c r="L17">
-        <v>0.5977007516614028</v>
+        <v>0.8066210879575378</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3388,22 +3388,22 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.579545525280815</v>
+        <v>0.5259547057403532</v>
       </c>
       <c r="J18">
-        <v>0.02951512807757192</v>
+        <v>0.05206997227535645</v>
       </c>
       <c r="K18">
-        <v>0.7437008196115621</v>
+        <v>0.7128473049989763</v>
       </c>
       <c r="L18">
-        <v>0.01366958411527145</v>
+        <v>0.02067214786469852</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3426,22 +3426,22 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.560611910581388</v>
+        <v>0.5598925109558542</v>
       </c>
       <c r="J19">
-        <v>0.0366903087793031</v>
+        <v>0.04019719781553128</v>
       </c>
       <c r="K19">
-        <v>0.7172738021962557</v>
+        <v>0.7253300668002809</v>
       </c>
       <c r="L19">
-        <v>0.01954204435368506</v>
+        <v>0.01759621904480188</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3464,22 +3464,22 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.4787549991450212</v>
+        <v>-0.4705910525045265</v>
       </c>
       <c r="J20">
-        <v>0.07217560549492458</v>
+        <v>0.08219753762575091</v>
       </c>
       <c r="K20">
-        <v>-0.6419981434253655</v>
+        <v>-0.5689069837972599</v>
       </c>
       <c r="L20">
-        <v>0.04536158917864154</v>
+        <v>0.08610936073892451</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3502,22 +3502,22 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.2771739468734333</v>
+        <v>-0.1384091330895666</v>
       </c>
       <c r="J21">
-        <v>0.2978975979923409</v>
+        <v>0.6092119761915052</v>
       </c>
       <c r="K21">
-        <v>-0.3750286184365996</v>
+        <v>-0.1987747292785607</v>
       </c>
       <c r="L21">
-        <v>0.2855969029688312</v>
+        <v>0.5819571528087297</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3540,22 +3540,22 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.1259881576697424</v>
+        <v>-0.1384091330895666</v>
       </c>
       <c r="J22">
-        <v>0.6360988735986226</v>
+        <v>0.6092119761915052</v>
       </c>
       <c r="K22">
-        <v>0.1461975970176575</v>
+        <v>-0.1919204282689551</v>
       </c>
       <c r="L22">
-        <v>0.6869410188538527</v>
+        <v>0.595298950736874</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3578,22 +3578,22 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.1259881576697424</v>
+        <v>-0.1384091330895666</v>
       </c>
       <c r="J23">
-        <v>0.6360988735986226</v>
+        <v>0.6092119761915052</v>
       </c>
       <c r="K23">
-        <v>0.2161181868956676</v>
+        <v>-0.1302317191825053</v>
       </c>
       <c r="L23">
-        <v>0.5487107060733141</v>
+        <v>0.7199008272052645</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3616,22 +3616,22 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2267786838055363</v>
+        <v>-0.02768182661791332</v>
       </c>
       <c r="J24">
-        <v>0.3943870594034554</v>
+        <v>0.9185663957730847</v>
       </c>
       <c r="K24">
-        <v>-0.3114644458202268</v>
+        <v>-0.02741720403842217</v>
       </c>
       <c r="L24">
-        <v>0.3810089567050594</v>
+        <v>0.9400699293286143</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4208,7 +4208,7 @@
         <v>0.2933526131391836</v>
       </c>
       <c r="L12">
-        <v>0.03867934687031337</v>
+        <v>0.03867934687031339</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5003,7 +5003,7 @@
         <v>-0.5561107852980067</v>
       </c>
       <c r="L7">
-        <v>0.0604349562009266</v>
+        <v>0.06043495620092659</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5216,22 +5216,22 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0.04969039949999533</v>
+        <v>0.05270462766947299</v>
       </c>
       <c r="J13">
-        <v>0.8509806870320558</v>
+        <v>0.8464505968765906</v>
       </c>
       <c r="K13">
-        <v>0.01262892050706804</v>
+        <v>0.0259499648053841</v>
       </c>
       <c r="L13">
-        <v>0.9723786419920799</v>
+        <v>0.9432726625041241</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5254,22 +5254,22 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.149071198499986</v>
+        <v>-0.2635231383473649</v>
       </c>
       <c r="J14">
-        <v>0.5730251193553904</v>
+        <v>0.3329216080655659</v>
       </c>
       <c r="K14">
-        <v>-0.1894338076060206</v>
+        <v>-0.3503245248726853</v>
       </c>
       <c r="L14">
-        <v>0.6001664342511973</v>
+        <v>0.3209921486658833</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5292,22 +5292,22 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.1256297269074015</v>
+        <v>-0.2398508059000617</v>
       </c>
       <c r="J15">
-        <v>0.6374017405958849</v>
+        <v>0.3819327979196356</v>
       </c>
       <c r="K15">
-        <v>-0.152008377581442</v>
+        <v>-0.3448837241706717</v>
       </c>
       <c r="L15">
-        <v>0.6750590889374006</v>
+        <v>0.3290799383310438</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5330,22 +5330,22 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.298142396999972</v>
+        <v>-0.210818510677892</v>
       </c>
       <c r="J16">
-        <v>0.2596563563704499</v>
+        <v>0.4385780260809998</v>
       </c>
       <c r="K16">
-        <v>-0.3788676152120412</v>
+        <v>-0.259499648053841</v>
       </c>
       <c r="L16">
-        <v>0.2802942824523375</v>
+        <v>0.4690507582155354</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5368,22 +5368,22 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.1987615979999813</v>
+        <v>-0.105409255338946</v>
       </c>
       <c r="J17">
-        <v>0.4523703606773608</v>
+        <v>0.6985353583033387</v>
       </c>
       <c r="K17">
-        <v>-0.3409808536908371</v>
+        <v>-0.1686747712349966</v>
       </c>
       <c r="L17">
-        <v>0.3349456951179903</v>
+        <v>0.6413437507268416</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5406,22 +5406,22 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.149071198499986</v>
+        <v>0.105409255338946</v>
       </c>
       <c r="J18">
-        <v>0.5730251193553904</v>
+        <v>0.6985353583033387</v>
       </c>
       <c r="K18">
-        <v>0.1641759665918845</v>
+        <v>0.1037998592215364</v>
       </c>
       <c r="L18">
-        <v>0.6503895621649565</v>
+        <v>0.7753684943458543</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5444,22 +5444,22 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.07537783614444091</v>
+        <v>0.0266500895444513</v>
       </c>
       <c r="J19">
-        <v>0.7773295263554205</v>
+        <v>0.9226081041997291</v>
       </c>
       <c r="K19">
-        <v>0.1076726007868547</v>
+        <v>0.04555068055084343</v>
       </c>
       <c r="L19">
-        <v>0.7671778789420547</v>
+        <v>0.9005643729271482</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5482,22 +5482,22 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.09938079899999065</v>
+        <v>-0.105409255338946</v>
       </c>
       <c r="J20">
-        <v>0.7071142312899612</v>
+        <v>0.6985353583033387</v>
       </c>
       <c r="K20">
-        <v>-0.1262892050706804</v>
+        <v>-0.07784989441615228</v>
       </c>
       <c r="L20">
-        <v>0.7281063840216824</v>
+        <v>0.8307317091592451</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5520,22 +5520,22 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.149071198499986</v>
+        <v>-0.05270462766947299</v>
       </c>
       <c r="J21">
-        <v>0.5730251193553904</v>
+        <v>0.8464505968765906</v>
       </c>
       <c r="K21">
-        <v>-0.2399494896342928</v>
+        <v>-0.1037998592215364</v>
       </c>
       <c r="L21">
-        <v>0.5043017190353258</v>
+        <v>0.7753684943458543</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -5558,22 +5558,22 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.3975231959999626</v>
+        <v>0.3162277660168379</v>
       </c>
       <c r="J22">
-        <v>0.1328549557310538</v>
+        <v>0.2452781168067728</v>
       </c>
       <c r="K22">
-        <v>0.5304146612968577</v>
+        <v>0.3892494720807614</v>
       </c>
       <c r="L22">
-        <v>0.1147392659290222</v>
+        <v>0.2662240730692272</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5596,22 +5596,22 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.298142396999972</v>
+        <v>0.210818510677892</v>
       </c>
       <c r="J23">
-        <v>0.2596563563704499</v>
+        <v>0.4385780260809998</v>
       </c>
       <c r="K23">
-        <v>0.4041254562261773</v>
+        <v>0.2465246656511489</v>
       </c>
       <c r="L23">
-        <v>0.2467547295422347</v>
+        <v>0.492323476312569</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -5634,22 +5634,22 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2484519974999766</v>
+        <v>-0.1581138830084189</v>
       </c>
       <c r="J24">
-        <v>0.347558036741169</v>
+        <v>0.5612758361345778</v>
       </c>
       <c r="K24">
-        <v>-0.4293832972403134</v>
+        <v>-0.259499648053841</v>
       </c>
       <c r="L24">
-        <v>0.2155824117700313</v>
+        <v>0.4690507582155354</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -5669,25 +5669,25 @@
         <v>16</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.31352722326441</v>
+        <v>-0.3244079990200284</v>
       </c>
       <c r="J25">
-        <v>0.1131685336545776</v>
+        <v>0.1020809611324846</v>
       </c>
       <c r="K25">
-        <v>-0.4479914656638877</v>
+        <v>-0.4824165900576836</v>
       </c>
       <c r="L25">
-        <v>0.08182143505121871</v>
+        <v>0.05842088299110668</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5707,25 +5707,25 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.3872983346207417</v>
+        <v>-0.4170959987400364</v>
       </c>
       <c r="J26">
-        <v>0.05036597579032801</v>
+        <v>0.03555790569992093</v>
       </c>
       <c r="K26">
-        <v>-0.5070173682344674</v>
+        <v>-0.5355127556300702</v>
       </c>
       <c r="L26">
-        <v>0.04501930875693567</v>
+        <v>0.03253137976639191</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5745,25 +5745,25 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.08334047874242113</v>
+        <v>0.2047685867790963</v>
       </c>
       <c r="J27">
-        <v>0.6747078413451294</v>
+        <v>0.3037024766857317</v>
       </c>
       <c r="K27">
-        <v>0.08027373462987823</v>
+        <v>0.2170954499333818</v>
       </c>
       <c r="L27">
-        <v>0.7675926515511813</v>
+        <v>0.4192967698838219</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5783,25 +5783,25 @@
         <v>16</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>0.09338863578008762</v>
+        <v>0.08448190755542286</v>
       </c>
       <c r="J28">
-        <v>0.6401498414586226</v>
+        <v>0.6731676659685988</v>
       </c>
       <c r="K28">
-        <v>0.1305442024324843</v>
+        <v>0.1201996807657877</v>
       </c>
       <c r="L28">
-        <v>0.6298840619248964</v>
+        <v>0.6574684200274921</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -5821,25 +5821,25 @@
         <v>16</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.1290994448735805</v>
+        <v>0.009268799972000809</v>
       </c>
       <c r="J29">
-        <v>0.5142199988155506</v>
+        <v>0.9627444106905073</v>
       </c>
       <c r="K29">
-        <v>0.1619428608987702</v>
+        <v>0.01365329971861369</v>
       </c>
       <c r="L29">
-        <v>0.5490376092324329</v>
+        <v>0.9599750222894384</v>
       </c>
     </row>
   </sheetData>

--- a/data/correlation_analysis_timeout_remove.xlsx
+++ b/data/correlation_analysis_timeout_remove.xlsx
@@ -506,7 +506,7 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
@@ -871,25 +871,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.003545221720296981</v>
+        <v>0.02919871531052824</v>
       </c>
       <c r="J10">
-        <v>0.9728986704705753</v>
+        <v>0.7792869073970613</v>
       </c>
       <c r="K10">
-        <v>0.006205606484648969</v>
+        <v>0.05326702354515665</v>
       </c>
       <c r="L10">
-        <v>0.9658842504002187</v>
+        <v>0.7133288232331647</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -909,25 +909,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0.007531826444330847</v>
+        <v>0.03091191513338553</v>
       </c>
       <c r="J11">
-        <v>0.939823300055862</v>
+        <v>0.7563176058989638</v>
       </c>
       <c r="K11">
-        <v>0.01845481420254957</v>
+        <v>0.05189590320941469</v>
       </c>
       <c r="L11">
-        <v>0.8987778293897221</v>
+        <v>0.7204036820310951</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -947,25 +947,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.1562359838666746</v>
+        <v>0.1841800495983816</v>
       </c>
       <c r="J12">
-        <v>0.115043499656949</v>
+        <v>0.06278475836348044</v>
       </c>
       <c r="K12">
-        <v>0.2375126523541698</v>
+        <v>0.2809257097381211</v>
       </c>
       <c r="L12">
-        <v>0.09674346165764539</v>
+        <v>0.04813238376383353</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1952,25 +1952,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.1719856383383667</v>
+        <v>-0.1127953217534384</v>
       </c>
       <c r="J10">
-        <v>0.1316238040142544</v>
+        <v>0.3246303816462205</v>
       </c>
       <c r="K10">
-        <v>-0.2170916607282444</v>
+        <v>-0.141785465198251</v>
       </c>
       <c r="L10">
-        <v>0.1299324388039652</v>
+        <v>0.3260061663372782</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1990,25 +1990,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.2220671589132321</v>
+        <v>-0.1657843576414015</v>
       </c>
       <c r="J11">
-        <v>0.0416011054294208</v>
+        <v>0.1297187088392248</v>
       </c>
       <c r="K11">
-        <v>-0.3044028033210576</v>
+        <v>-0.228149078380763</v>
       </c>
       <c r="L11">
-        <v>0.03161022555609473</v>
+        <v>0.1110368177920856</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2028,25 +2028,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.2554933792020658</v>
+        <v>0.2135201189924139</v>
       </c>
       <c r="J12">
-        <v>0.01830915752272128</v>
+        <v>0.04951827186158275</v>
       </c>
       <c r="K12">
-        <v>0.3206647291565351</v>
+        <v>0.2585375793536707</v>
       </c>
       <c r="L12">
-        <v>0.02318249883445114</v>
+        <v>0.06985387930445178</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3084,22 +3084,22 @@
         <v>40</v>
       </c>
       <c r="G10">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>0.08712167584961492</v>
+        <v>0.08993343971074573</v>
       </c>
       <c r="J10">
-        <v>0.4083766752312095</v>
+        <v>0.3939555332313259</v>
       </c>
       <c r="K10">
-        <v>0.1227687641955272</v>
+        <v>0.1261078291007821</v>
       </c>
       <c r="L10">
-        <v>0.3956759834281137</v>
+        <v>0.3828516225378101</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3122,22 +3122,22 @@
         <v>40</v>
       </c>
       <c r="G11">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0.07462967377124524</v>
+        <v>0.07727463833790227</v>
       </c>
       <c r="J11">
-        <v>0.4588124610579571</v>
+        <v>0.4435614692500816</v>
       </c>
       <c r="K11">
-        <v>0.09255821810809323</v>
+        <v>0.09527592158164427</v>
       </c>
       <c r="L11">
-        <v>0.5226237277667096</v>
+        <v>0.5104337983014946</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3160,22 +3160,22 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.0648462728029752</v>
+        <v>0.06408768791953229</v>
       </c>
       <c r="J12">
-        <v>0.5171200381290717</v>
+        <v>0.5225032783206667</v>
       </c>
       <c r="K12">
-        <v>0.08638478532010939</v>
+        <v>0.08576989054836207</v>
       </c>
       <c r="L12">
-        <v>0.5508414269428876</v>
+        <v>0.5536912247004897</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3846,8 +3846,8 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4114,25 +4114,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>0.01421997815784012</v>
+        <v>-0.07463933708620761</v>
       </c>
       <c r="J10">
-        <v>0.9088173646349219</v>
+        <v>0.547733910068501</v>
       </c>
       <c r="K10">
-        <v>0.01636148293791983</v>
+        <v>-0.08587989564247843</v>
       </c>
       <c r="L10">
-        <v>0.9102093962355748</v>
+        <v>0.5531808807861933</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4152,25 +4152,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0.001918117792161453</v>
+        <v>-0.02642855544759036</v>
       </c>
       <c r="J11">
-        <v>0.9870933347767511</v>
+        <v>0.8236209225496525</v>
       </c>
       <c r="K11">
-        <v>0.002310973073108823</v>
+        <v>-0.03184146471615851</v>
       </c>
       <c r="L11">
-        <v>0.9872920353883015</v>
+        <v>0.8262496889100787</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4190,25 +4190,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.2419047619047619</v>
+        <v>0.2391168558431198</v>
       </c>
       <c r="J12">
-        <v>0.04002718189621234</v>
+        <v>0.04237662250330112</v>
       </c>
       <c r="K12">
-        <v>0.2933526131391836</v>
+        <v>0.2899717804431688</v>
       </c>
       <c r="L12">
-        <v>0.03867934687031339</v>
+        <v>0.04108542769241475</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5102,22 +5102,22 @@
         <v>39</v>
       </c>
       <c r="G10">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H10">
         <v>48</v>
       </c>
       <c r="I10">
-        <v>-0.2134569412305524</v>
+        <v>-0.02930791451885823</v>
       </c>
       <c r="J10">
-        <v>0.05383248704028133</v>
+        <v>0.7910775440874591</v>
       </c>
       <c r="K10">
-        <v>-0.254689962010721</v>
+        <v>-0.03772642467808281</v>
       </c>
       <c r="L10">
-        <v>0.08064290874044987</v>
+        <v>0.7990497364707935</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5140,22 +5140,22 @@
         <v>39</v>
       </c>
       <c r="G11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H11">
         <v>48</v>
       </c>
       <c r="I11">
-        <v>-0.1499545016214044</v>
+        <v>0.02099141080552319</v>
       </c>
       <c r="J11">
-        <v>0.1564334829386408</v>
+        <v>0.8426468812248378</v>
       </c>
       <c r="K11">
-        <v>-0.2015245812013276</v>
+        <v>0.02967862816832468</v>
       </c>
       <c r="L11">
-        <v>0.1695848710732239</v>
+        <v>0.8412901317714291</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5178,22 +5178,22 @@
         <v>39</v>
       </c>
       <c r="G12">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H12">
         <v>48</v>
       </c>
       <c r="I12">
-        <v>0.1670554193005554</v>
+        <v>0.2256752591064341</v>
       </c>
       <c r="J12">
-        <v>0.1123317103170471</v>
+        <v>0.03184723740943501</v>
       </c>
       <c r="K12">
-        <v>0.2349915639777836</v>
+        <v>0.3154630979708622</v>
       </c>
       <c r="L12">
-        <v>0.1078882378308313</v>
+        <v>0.02895586446936517</v>
       </c>
     </row>
     <row r="13" spans="1:12">
